--- a/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.527786914659739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.665100217018576</v>
+        <v>7.665100217018578</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.72032380526145</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.703495234112267</v>
+        <v>1.640308224271801</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8306338007966152</v>
+        <v>0.9651778067008522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.583730833484944</v>
+        <v>5.613765236686663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.09956990619685943</v>
+        <v>-0.2578743972309168</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2555051536981448</v>
+        <v>-0.1631397602744633</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.40925866392835</v>
+        <v>7.068530820821175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.176439182865727</v>
+        <v>1.093070574351663</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9363155136136574</v>
+        <v>0.9601013320185733</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.880439946976081</v>
+        <v>6.97991918321568</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.696844606925078</v>
+        <v>5.571999330987932</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.224273875142754</v>
+        <v>4.330349516244167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.971873522775354</v>
+        <v>10.04352918133796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.114190002318489</v>
+        <v>3.95152186988804</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.928352338772807</v>
+        <v>3.799137523681074</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.28081897741731</v>
+        <v>11.39385582923751</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.973190630121187</v>
+        <v>3.962122749025752</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.624600796685947</v>
+        <v>3.52718552738893</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.906459998664713</v>
+        <v>10.02265940785769</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>2.18231262185482</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6.617505951301057</v>
+        <v>6.617505951301058</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5843129704114558</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6624526549015977</v>
+        <v>0.7231437437850871</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2856266758386523</v>
+        <v>0.3965447710946453</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>2.603574537060391</v>
+        <v>2.745247725756082</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08230408105501645</v>
+        <v>-0.1187316668251353</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08230119765047236</v>
+        <v>-0.05774913835172524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.631728503630629</v>
+        <v>1.701454627937678</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4230596098992489</v>
+        <v>0.3869574771731511</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3360927406379055</v>
+        <v>0.292252298246683</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.52019550305622</v>
+        <v>2.536686432872668</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>8.526772092911692</v>
+        <v>7.954083758248689</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.362960594960422</v>
+        <v>6.320020771549856</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>15.66181480397497</v>
+        <v>15.30063177721231</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.001561583711136</v>
+        <v>1.855264980860631</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.830678499595408</v>
+        <v>1.800710983754944</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.769451525122238</v>
+        <v>5.864974604285918</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.504780096452914</v>
+        <v>2.613134288739892</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.439238365927335</v>
+        <v>2.264775362248927</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.416894304103551</v>
+        <v>6.769073735253922</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.003352137021281343</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.772847427725774</v>
+        <v>3.772847427725775</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.066901513090916</v>
+        <v>-0.9858263146189804</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.992490717526548</v>
+        <v>-1.914081407518474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1548492958991868</v>
+        <v>0.2734850769113448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5816514689211355</v>
+        <v>0.1256074142571133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.26607132413088</v>
+        <v>-1.35893641601514</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.92793096492278</v>
+        <v>3.727141742732874</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1727397046045812</v>
+        <v>0.1262076535871497</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.091866877473477</v>
+        <v>-1.140037782891152</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.473580972991332</v>
+        <v>2.465452092607203</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.297687168270932</v>
+        <v>2.373812743585893</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.12574613130794</v>
+        <v>1.31490623734408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.490655263268479</v>
+        <v>3.597781337153619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.199194535232887</v>
+        <v>3.940943047057705</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.985310680746577</v>
+        <v>1.859015851634037</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.224666074195834</v>
+        <v>7.390463750004008</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.721749437993502</v>
+        <v>2.722845609308425</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.175571682128508</v>
+        <v>1.163390330313578</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.955375421535973</v>
+        <v>4.895859039605351</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2753231276561704</v>
+        <v>-0.2626605732058062</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4739937379304519</v>
+        <v>-0.4886562322761235</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02866839188811858</v>
+        <v>0.0454268069891819</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09908553190914902</v>
+        <v>-0.005897783626749137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3384623296453005</v>
+        <v>-0.3948270251930758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9261002124185772</v>
+        <v>0.866555049827952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05165696676812177</v>
+        <v>0.0294212234293823</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.309176065065235</v>
+        <v>-0.3090447411516035</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6435753150374347</v>
+        <v>0.6107316303798395</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9832717223121601</v>
+        <v>1.024642050366015</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4850097985738716</v>
+        <v>0.6114713561339831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.396941056572745</v>
+        <v>1.542538794989357</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.772844843078611</v>
+        <v>1.606788834377094</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8819507953772975</v>
+        <v>0.7947058058944686</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.169245865286785</v>
+        <v>3.216900034521769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.167736581340921</v>
+        <v>1.052718924969659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4558746397386991</v>
+        <v>0.4539320108170343</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.919679022385121</v>
+        <v>2.001625404051748</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7708812608307889</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.219417913438825</v>
+        <v>1.219417913438824</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3201731306923916</v>
@@ -1083,7 +1083,7 @@
         <v>-0.5676487695539092</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7894225379303219</v>
+        <v>0.7894225379303211</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1494383318573163</v>
@@ -1092,7 +1092,7 @@
         <v>-0.6619332885348272</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.004053760330974</v>
+        <v>1.004053760330975</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.86552610565509</v>
+        <v>-1.846896671231377</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.675655339685768</v>
+        <v>-2.610148352106163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8044642573536561</v>
+        <v>-0.6724901775592035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.021498906184569</v>
+        <v>-1.886608059288525</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.708757147762419</v>
+        <v>-2.720352977787479</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.161189789370694</v>
+        <v>-1.281415783171969</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.540228285595804</v>
+        <v>-1.253711867963077</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.065282494502384</v>
+        <v>-2.103462086465216</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5392210619490424</v>
+        <v>-0.5529939394928063</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.901197065634101</v>
+        <v>2.068046400313365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.252662218780105</v>
+        <v>1.388584727869875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.350121766204177</v>
+        <v>3.264070305318088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.580750949945277</v>
+        <v>2.566487659277425</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.660361611978107</v>
+        <v>1.511936858296003</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.788703559563629</v>
+        <v>2.72739275788274</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.567036096327195</v>
+        <v>1.640087589092036</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7297097203514444</v>
+        <v>0.593062067150591</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.392547549075674</v>
+        <v>2.291226604278962</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2101823036487446</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.332476710979976</v>
+        <v>0.3324767109799758</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07009330858489854</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1242714536542639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1728228644151454</v>
+        <v>0.1728228644151452</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.03627577481514851</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1606826215141836</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.243731495523157</v>
+        <v>0.2437314955231571</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4138754328877988</v>
+        <v>-0.4159259932670877</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5739229837902451</v>
+        <v>-0.5689242808855246</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1986240296372289</v>
+        <v>-0.1558321721784431</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3379845548049776</v>
+        <v>-0.3333783667253366</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4822087247735687</v>
+        <v>-0.4755111302527196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2046868651503097</v>
+        <v>-0.2349676142090037</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3095068919904403</v>
+        <v>-0.2632580409613879</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4302219045578875</v>
+        <v>-0.428987837455357</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1142748636633141</v>
+        <v>-0.1116634129813209</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.709650223384668</v>
+        <v>0.7695400089877943</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4980639257465736</v>
+        <v>0.57156172823789</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.184298527384313</v>
+        <v>1.197288235785003</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7659245563261534</v>
+        <v>0.7310117901181595</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4850563591686176</v>
+        <v>0.4321400488845824</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8353326683392204</v>
+        <v>0.7896125301445603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4666820385765837</v>
+        <v>0.5165056514221885</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2277553114747919</v>
+        <v>0.1828755648473067</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7054960075970981</v>
+        <v>0.6852591749614114</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.4533792955299897</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.934259847407962</v>
+        <v>3.934259847407961</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.206982137777709</v>
@@ -1306,7 +1306,7 @@
         <v>0.2758154948047175</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.109191842065131</v>
+        <v>4.109191842065133</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2409341383506629</v>
+        <v>0.4022270101319979</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.325736429851373</v>
+        <v>-1.429862729146627</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.582036429843301</v>
+        <v>2.523251740923333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5756804491118688</v>
+        <v>0.6077473703952699</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.278341985498312</v>
+        <v>-1.455321956027829</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.287978110240633</v>
+        <v>2.298819021205618</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8865036923670744</v>
+        <v>0.9506528647416462</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8599339623226278</v>
+        <v>-0.8857961142866279</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.685478429691499</v>
+        <v>2.89058270883311</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.022849053687688</v>
+        <v>4.041131719945261</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.596992689917426</v>
+        <v>1.530035952358472</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.160403154299486</v>
+        <v>6.321260822969586</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.332060127323671</v>
+        <v>4.50193756856072</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.137424086469842</v>
+        <v>2.100651435961648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.719974351856647</v>
+        <v>5.696925151982692</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.560520185917918</v>
+        <v>3.586723637996404</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.555771393062575</v>
+        <v>1.370306634731846</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.37094285225853</v>
+        <v>5.337460978502475</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.08629040051744895</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.285583357475569</v>
+        <v>1.28558335747557</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06442283300254877</v>
+        <v>0.05856996352909188</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4107498456048705</v>
+        <v>-0.4624878175529908</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7710816261077624</v>
+        <v>0.750035170110408</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1134372887337991</v>
+        <v>0.09441809536558451</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2929057599180967</v>
+        <v>-0.3084040828031275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4278873167900693</v>
+        <v>0.4725236820121003</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2374364832675463</v>
+        <v>0.2369025140185562</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2341701996760502</v>
+        <v>-0.2415809724521533</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6842730351680278</v>
+        <v>0.7400492421146172</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.393831600969564</v>
+        <v>2.216088483213816</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9868906645273845</v>
+        <v>0.8365469147462167</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.798493809815354</v>
+        <v>3.628746280580273</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.356223485284701</v>
+        <v>1.410207548361694</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7189495356662406</v>
+        <v>0.6924853528221079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.921306173334316</v>
+        <v>1.929322094803223</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.353116398063584</v>
+        <v>1.282758648988811</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6074166085028027</v>
+        <v>0.5188863741051321</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.04551329583587</v>
+        <v>2.018052947019113</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.2955750759103672</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.596029283761183</v>
+        <v>3.596029283761182</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.7644611304944</v>
@@ -1511,7 +1511,7 @@
         <v>0.4604791787563046</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.783265305043903</v>
+        <v>4.783265305043905</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.617922061999908</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6766962548122695</v>
+        <v>0.635593851058779</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4498530338167657</v>
+        <v>-0.5570116995641137</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.734322242559363</v>
+        <v>2.687442135613829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7859558671164277</v>
+        <v>0.7894670149808489</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.410929467310847</v>
+        <v>-0.4004839147109896</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.797294001341939</v>
+        <v>3.824081585927485</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9245173727179744</v>
+        <v>0.9642944945294466</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2573931278123491</v>
+        <v>-0.2473238250052905</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.510761250302235</v>
+        <v>3.538058380614235</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.489750172835961</v>
+        <v>2.464013287518892</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.177226137418466</v>
+        <v>1.08871736825118</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.61010417452581</v>
+        <v>4.507242167708733</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.82530457745507</v>
+        <v>2.859230706271907</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.443990704722173</v>
+        <v>1.473892583680909</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.634316796634335</v>
+        <v>5.693469673392845</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.329392246702045</v>
+        <v>2.307771099406982</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.034131124944002</v>
+        <v>0.9597336370279574</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.866184991825389</v>
+        <v>4.843944781871276</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1118032172414793</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.360221737170401</v>
+        <v>1.3602217371704</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4908513747626347</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2134846986805598</v>
+        <v>0.2093235735351092</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.152776632900527</v>
+        <v>-0.2002432083091197</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8775490456890744</v>
+        <v>0.8394283235267466</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1943102852192904</v>
+        <v>0.1900595632299419</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1145611959115118</v>
+        <v>-0.09957205767884331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8921382615205895</v>
+        <v>0.9053565102136306</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2603136181645762</v>
+        <v>0.2804572407063612</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0763139817258502</v>
+        <v>-0.07890097912885655</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.005232005065044</v>
+        <v>1.020430623992263</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.081298843250033</v>
+        <v>1.077579283164272</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.541452035363106</v>
+        <v>0.4755634689665724</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.123510890368582</v>
+        <v>1.996460302915254</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8871811570832472</v>
+        <v>0.9093646316020491</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4541331623233845</v>
+        <v>0.4650898859129645</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.815976810239168</v>
+        <v>1.858609501580541</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8231101304416877</v>
+        <v>0.8367830719122428</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3723359938493628</v>
+        <v>0.328688551824239</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.738177585663454</v>
+        <v>1.734042194733735</v>
       </c>
     </row>
     <row r="34">
